--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,70 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naveensingh/projects/CLS-Web-Scrapping/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894020E4-2CBD-1D45-B009-1961C00DBD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Varient</t>
-  </si>
-  <si>
-    <t>Title Section</t>
-  </si>
-  <si>
-    <t>Price Section</t>
-  </si>
-  <si>
-    <t>Regular Price Section</t>
-  </si>
-  <si>
-    <t>Overview Section</t>
-  </si>
-  <si>
-    <t>Product Detail</t>
-  </si>
-  <si>
-    <t>Image Path</t>
-  </si>
-  <si>
-    <t>Product Link</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,52 +444,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col width="5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="7.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="18.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.5" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Varient</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Title Section</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price Section</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Regular Price Section</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Overview Section</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Product Detail</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Image Path</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Product Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Black-3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Miimall Compatible for Samsung Galaxy Z Fold 2 Case, Detachable Hinge Protection + Alloy Kickstand + Screen Cover Drop-Resistance Bumper Leather Case for Galaxy Z Fold 2 5G (Black)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5,199</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Miimall&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Black-3&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Bumper&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Tempered Glass Thermoplastic Polyurethane Leather&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-special_feature"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Special Feature&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Hinge Protection Detachable, Kickstand, Screen Cover&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎M20954-BLACK &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎12 x 1 x 10 cm; 30 Grams &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎M20954-BLACK &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Features &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Hinge Protection Detachable, Kickstand, Screen Cover &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Included &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Required &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Tempered Glass Thermoplastic Polyurethane Leather &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Form Factor &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Bumper &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎30 g &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>/Users/naveensingh/projects/CLS-Web-Scrapping/data/images/2023-03-11/miima-Black-3-110333</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Miimall-Compatible-Detachable-Protection-Drop-Resistance/dp/B09XF3R148/ref=sr_1_3?crid=3AK4CJZIMK4Q&amp;keywords=samsung%2Bz%2Bfold%2B2%2Bcovers&amp;qid=1678212086&amp;refinements=p_36%3A1318505031&amp;rnid=1318502031&amp;s=electronics&amp;sprefix=samsung%2Bz%2Bfold%2B2%2Bcovers%2Caps%2C219&amp;sr=1-3&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Miimall Compatible Samsung Galaxy Z Fold 2 Case Leather with Hinge Protection, Luxury Folding Plating Hollow All-Inclusive Protection with Screen Cover Cases for Galaxy Z Fold 2 5G (Black)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5,199</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Miimall&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Black&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Bumper&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Leather&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-pattern"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Pattern&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Solid&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎20826B &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎12 x 1 x 10 cm; 30 Grams &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎20826B &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Features &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Hinge Protection, Magnetic Folding Kickstand, HD Screen Cover, Anti-Slip, Shockproof &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Mounting Hardware &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Kickstand &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Standing screen display size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.6 Inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Included &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Required &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Leather &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Form Factor &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Bumper &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎30 g &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>/Users/naveensingh/projects/CLS-Web-Scrapping/data/images/2023-03-11/miima-Black-110424</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Miimall-Compatible-Detachable-Protection-Drop-Resistance/dp/B09NSSFTW4/ref=sr_1_3?crid=3AK4CJZIMK4Q&amp;keywords=samsung%2Bz%2Bfold%2B2%2Bcovers&amp;qid=1678212086&amp;refinements=p_36%3A1318505031&amp;rnid=1318502031&amp;s=electronics&amp;sprefix=samsung%2Bz%2Bfold%2B2%2Bcovers%2Caps%2C219&amp;sr=1-3&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Black-2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Miimall Compatible for Samsung Fold 2 Case with Hinge Protection Detachable, Shine Plating Frame+Transparent Body Cover Luxury Cases for Galaxy Fold 2 (Black)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,799</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Miimall&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Black-2&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Fold 2&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;TPU, Polycarbonate&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-pattern"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Pattern&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Solid&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎M20938-BLACK &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎12 x 1 x 10 cm; 30 Grams &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎M20938-BLACK &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Features &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Hinge Protection Detachable, Shine Plating Frame &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Standing screen display size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.6 Inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Included &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Required &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎TPU, Polycarbonate &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎30 g &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>/Users/naveensingh/projects/CLS-Web-Scrapping/data/images/2023-03-11/miima-Black-2-110514</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Miimall-Compatible-Detachable-Protection-Drop-Resistance/dp/B09W5RJ1BQ/ref=sr_1_3?crid=3AK4CJZIMK4Q&amp;keywords=samsung%2Bz%2Bfold%2B2%2Bcovers&amp;qid=1678212086&amp;refinements=p_36%3A1318505031&amp;rnid=1318502031&amp;s=electronics&amp;sprefix=samsung%2Bz%2Bfold%2B2%2Bcovers%2Caps%2C219&amp;sr=1-3&amp;th=1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -40,29 +40,70 @@
     <t>Product Link</t>
   </si>
   <si>
-    <t>2023-03-12</t>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>Navy Blue</t>
+  </si>
+  <si>
+    <t>Spigen Sillicone Fit Back Cover Case for iPhone 13 Mini (Sillicone | Navy Blue)</t>
+  </si>
+  <si>
+    <t>1,424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Navy Blue&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;iPhone 13 Mini (2021)&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="a-size-base-plus a-text-bold"&gt; About this item &lt;/h1&gt;&lt;ul class="a-unordered-list a-vertical a-spacing-mini"&gt;   &lt;li&gt;&lt;span class="a-list-item"&gt; [Compatibility] Spigen Genuine Case Compatible with iPhone 13 Mini  &lt;/span&gt;&lt;/li&gt;  &lt;li&gt;&lt;span class="a-list-item"&gt; [Color Name] Red  &lt;/span&gt;&lt;/li&gt;  &lt;li&gt;&lt;span class="a-list-item"&gt; [Case Cover Type] Back Cover Case  &lt;/span&gt;&lt;/li&gt;  &lt;li&gt;&lt;span class="a-list-item"&gt; [Material] Made of high quality sillicone  &lt;/span&gt;&lt;/li&gt;  &lt;li&gt;&lt;span class="a-list-item"&gt; [Grip Design] The light and stylish protective cover shows the beauty of your iPhone and offers a good grip  &lt;/span&gt;&lt;/li&gt;  &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-17/spige-Navy Blue-114316</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B096J1X2XG/ref=sspa_dk_detail_3?pd_rd_i=B096J1X2XG&amp;pd_rd_w=sy9ne&amp;content-id=amzn1.sym.b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_p=b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_r=N8H87KVYGC0G01M2GT3Z&amp;pd_rd_wg=CuOjD&amp;pd_rd_r=8cfd7a79-b8cd-46c1-83a2-1dfb864f2906&amp;s=electronics&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw&amp;th=1</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Spigen Silicone Fit Back Cover Case for iPhone 13 Mini (Silicone | Pink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Pink&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;iPhone 13 Mini&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-17/spige-Pink-114407</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B09GGZR6DB/ref=sspa_dk_detail_3?pd_rd_i=B096J1X2XG&amp;pd_rd_w=sy9ne&amp;content-id=amzn1.sym.b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_p=b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_r=N8H87KVYGC0G01M2GT3Z&amp;pd_rd_wg=CuOjD&amp;pd_rd_r=8cfd7a79-b8cd-46c1-83a2-1dfb864f2906&amp;s=electronics&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw&amp;th=1</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Spigen Sillicone Fit Back Cover Case for iPhone 13 Mini (Sillicone | White)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;White&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;iPhone 13 Mini (2021)&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-17/spige-White-114613</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B096HYVJWW/ref=sspa_dk_detail_3?pd_rd_i=B096J1X2XG&amp;pd_rd_w=sy9ne&amp;content-id=amzn1.sym.b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_p=b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_r=N8H87KVYGC0G01M2GT3Z&amp;pd_rd_wg=CuOjD&amp;pd_rd_r=8cfd7a79-b8cd-46c1-83a2-1dfb864f2906&amp;s=electronics&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw&amp;th=1</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
-    <t>Sillicone Fit Back Cover Case for iPhone 13 Mini (Sillicone | Black)</t>
-  </si>
-  <si>
-    <t>1,499</t>
-  </si>
-  <si>
-    <t>₹2,399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Black&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;iPhone 13 Mini (2021)&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h1 class="a-size-base-plus a-text-bold"&gt; About this item &lt;/h1&gt; -&lt;ul class="a-unordered-list a-vertical a-spacing-mini"&gt;   &lt;li&gt;&lt;span class="a-list-item"&gt; [Compatibility] Spigen Genuine Case Compatible with iPhone 13 Mini  &lt;/span&gt;&lt;/li&gt;  &lt;li&gt;&lt;span class="a-list-item"&gt; [Color Name] White  &lt;/span&gt;&lt;/li&gt;  &lt;li&gt;&lt;span class="a-list-item"&gt; [Case Cover Type] Back Cover Case  &lt;/span&gt;&lt;/li&gt;  &lt;li&gt;&lt;span class="a-list-item"&gt; [Precise Fit] All connections and buttons are easy to reach and use  &lt;/span&gt;&lt;/li&gt;  &lt;li&gt;&lt;span class="a-list-item"&gt; [Grip Design] The light and stylish protective cover shows the beauty of your iPhone and offers a good grip  &lt;/span&gt;&lt;/li&gt;  &lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-12/spige-Black-200145</t>
+    <t>Spigen Sillicone Fit Back Cover Case for iPhone 13 Mini (Sillicone | Black)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Black&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;IPhone 13 Mini (2021)&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-17/spige-Black-114705</t>
   </si>
   <si>
     <t>https://www.amazon.in/dp/B096H79P1D/ref=sspa_dk_detail_3?pd_rd_i=B096J1X2XG&amp;pd_rd_w=sy9ne&amp;content-id=amzn1.sym.b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_p=b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_r=N8H87KVYGC0G01M2GT3Z&amp;pd_rd_wg=CuOjD&amp;pd_rd_r=8cfd7a79-b8cd-46c1-83a2-1dfb864f2906&amp;s=electronics&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw&amp;th=1</t>
@@ -71,64 +112,25 @@
     <t>Iris Purple</t>
   </si>
   <si>
-    <t>Sillicone Fit Back Cover Case for iPhone 13 Mini (Sillicone | Iris Purple)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Iris Purple&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;IPhone 13 Mini (2021)&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
-  </si>
-  <si>
-    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-12/spige-Iris Purple-195722</t>
+    <t>Spigen Sillicone Fit Back Cover Case for iPhone 13 Mini (Sillicone | Iris Purple)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Iris Purple&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;iPhone 13 Mini (2021)&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-17/spige-Iris Purple-114759</t>
   </si>
   <si>
     <t>https://www.amazon.in/dp/B096J4YHYR/ref=sspa_dk_detail_3?pd_rd_i=B096J1X2XG&amp;pd_rd_w=sy9ne&amp;content-id=amzn1.sym.b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_p=b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_r=N8H87KVYGC0G01M2GT3Z&amp;pd_rd_wg=CuOjD&amp;pd_rd_r=8cfd7a79-b8cd-46c1-83a2-1dfb864f2906&amp;s=electronics&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw&amp;th=1</t>
   </si>
   <si>
-    <t>Navy Blue</t>
-  </si>
-  <si>
-    <t>Sillicone Fit Back Cover Case for iPhone 13 Mini (Sillicone | Navy Blue)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Navy Blue&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;IPhone 13 Mini (2021)&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
-  </si>
-  <si>
-    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-12/spige-Navy Blue-195815</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B096J1X2XG/ref=sspa_dk_detail_3?pd_rd_i=B096J1X2XG&amp;pd_rd_w=sy9ne&amp;content-id=amzn1.sym.b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_p=b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_r=N8H87KVYGC0G01M2GT3Z&amp;pd_rd_wg=CuOjD&amp;pd_rd_r=8cfd7a79-b8cd-46c1-83a2-1dfb864f2906&amp;s=electronics&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw&amp;th=1</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Silicone Fit Back Cover Case for iPhone 13 Mini (Silicone | Pink)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Spigen&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Pink&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Basic Case&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;iPhone 13 Mini&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Silicone&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
-  </si>
-  <si>
-    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-12/spige-Pink-195906</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B09GGZR6DB/ref=sspa_dk_detail_3?pd_rd_i=B096J1X2XG&amp;pd_rd_w=sy9ne&amp;content-id=amzn1.sym.b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_p=b3dfef88-30a1-490c-be36-e990ef384667&amp;pf_rd_r=N8H87KVYGC0G01M2GT3Z&amp;pd_rd_wg=CuOjD&amp;pd_rd_r=8cfd7a79-b8cd-46c1-83a2-1dfb864f2906&amp;s=electronics&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw&amp;th=1</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>Silicone Fit Back Cover Case for iPhone 13 Mini (Silicone | Red)</t>
-  </si>
-  <si>
-    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-12/title-varient-200349</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Silicone Fit Back Cover Case for iPhone 13 Mini (Silicone | White)</t>
-  </si>
-  <si>
-    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-12/title-varient-200518</t>
+    <t>Spigen Sillicone Fit Back Cover Case for iPhone 13 Mini (Sillicone | Red)</t>
+  </si>
+  <si>
+    <t>/Users/iss/Downloads/scrapping/data/images/2023-03-17/title-varient-115353</t>
   </si>
 </sst>
 </file>
@@ -155,18 +157,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -179,16 +175,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,13 +201,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -231,7 +227,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -383,9 +378,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -465,7 +460,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -493,10 +488,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -752,9 +747,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
+              <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1042,7 +1037,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1070,10 +1065,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1366,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="45.35" customHeight="1">
+    <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>9</v>
       </c>
@@ -1379,165 +1374,165 @@
       <c r="D2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="3">
+        <v>2399</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="H2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" ht="45.35" customHeight="1">
+    <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>9</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
-        <v>13</v>
+      <c r="E3" s="3">
+        <v>2399</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="G3" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="2">
+      <c r="I3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="2">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" ht="45.35" customHeight="1">
+    <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>9</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>24</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="2">
-        <v>13</v>
+      <c r="E4" s="3">
+        <v>2399</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="G4" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s" s="2">
+      <c r="I4" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="I4" t="s" s="2">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" ht="45.35" customHeight="1">
+    <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>9</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E5" t="s" s="2">
-        <v>13</v>
+      <c r="E5" s="3">
+        <v>2399</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="G5" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s" s="2">
+      <c r="I5" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>32</v>
-      </c>
     </row>
-    <row r="6" ht="45.35" customHeight="1">
+    <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>9</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E6" t="s" s="2">
-        <v>13</v>
+      <c r="E6" s="3">
+        <v>2399</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s" s="3">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" ht="45.35" customHeight="1">
+    <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>9</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="2">
-        <v>13</v>
+      <c r="E7" s="3">
+        <v>2399</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="15.35" customHeight="1">
